--- a/sputnik/personal/ee/24ee.xlsx
+++ b/sputnik/personal/ee/24ee.xlsx
@@ -16,23 +16,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -43,6 +34,21 @@
   </si>
   <si>
     <t>Т2</t>
+  </si>
+  <si>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
   </si>
 </sst>
 </file>
@@ -50,7 +56,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -124,7 +130,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -440,10 +446,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F6:F7"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -454,31 +460,37 @@
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
+      <c r="G1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -494,11 +506,13 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C3" s="3">
         <v>1476</v>
@@ -506,6 +520,8 @@
       <c r="D3" s="3"/>
       <c r="E3" s="8"/>
       <c r="F3" s="6"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
@@ -528,11 +544,18 @@
         <f>D4*E4</f>
         <v>472.5</v>
       </c>
+      <c r="G4" s="6">
+        <f>SUM(F4,F5)</f>
+        <v>813.25</v>
+      </c>
+      <c r="H4" s="3">
+        <v>813.25</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5" s="3">
         <v>1621</v>
@@ -548,6 +571,8 @@
         <f>D5*E5</f>
         <v>340.75</v>
       </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -570,11 +595,18 @@
         <f>D6*E6</f>
         <v>399.61</v>
       </c>
+      <c r="G6" s="6">
+        <f>SUM(F6,F7)</f>
+        <v>623.17000000000007</v>
+      </c>
+      <c r="H6" s="3">
+        <v>623.16999999999996</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C7" s="3">
         <v>1713</v>
@@ -590,6 +622,8 @@
         <f>D7*E7</f>
         <v>223.56</v>
       </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
@@ -597,9 +631,16 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="6"/>
-      <c r="H8" s="1" t="s">
-        <v>2</v>
+      <c r="F8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="6">
+        <f>SUM(G4:G7)</f>
+        <v>1436.42</v>
+      </c>
+      <c r="H8" s="6">
+        <f>SUM(H4:H7)</f>
+        <v>1436.42</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -609,126 +650,8 @@
       <c r="D9" s="3"/>
       <c r="E9" s="8"/>
       <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/24ee.xlsx
+++ b/sputnik/personal/ee/24ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -446,10 +446,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -626,32 +626,83 @@
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="6" t="s">
-        <v>10</v>
+      <c r="A8" s="4">
+        <v>44039</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3786</v>
+      </c>
+      <c r="D8" s="3">
+        <f>SUM(C8,-C6)</f>
+        <v>149</v>
+      </c>
+      <c r="E8" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F8" s="6">
+        <f>D8*E8</f>
+        <v>701.79</v>
       </c>
       <c r="G8" s="6">
-        <f>SUM(G4:G7)</f>
-        <v>1436.42</v>
-      </c>
-      <c r="H8" s="6">
-        <f>SUM(H4:H7)</f>
-        <v>1436.42</v>
+        <f>SUM(F8,F9)</f>
+        <v>1012.8899999999999</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1012.89</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="6"/>
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1835</v>
+      </c>
+      <c r="D9" s="3">
+        <f>SUM(C9,-C7)</f>
+        <v>122</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F9" s="6">
+        <f>D9*E9</f>
+        <v>311.09999999999997</v>
+      </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="6">
+        <f>SUM(G4:G9)</f>
+        <v>2449.31</v>
+      </c>
+      <c r="H10" s="6">
+        <f>SUM(H4:H9)</f>
+        <v>2449.31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/24ee.xlsx
+++ b/sputnik/personal/ee/24ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>оплачено</t>
-  </si>
-  <si>
-    <t>итого за период</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -534,14 +531,14 @@
         <v>3548</v>
       </c>
       <c r="D4" s="3">
-        <f>SUM(C4,-C2)</f>
+        <f t="shared" ref="D4:D11" si="0">SUM(C4,-C2)</f>
         <v>105</v>
       </c>
       <c r="E4" s="8">
         <v>4.5</v>
       </c>
       <c r="F4" s="6">
-        <f>D4*E4</f>
+        <f t="shared" ref="F4:F9" si="1">D4*E4</f>
         <v>472.5</v>
       </c>
       <c r="G4" s="6">
@@ -561,14 +558,14 @@
         <v>1621</v>
       </c>
       <c r="D5" s="3">
-        <f>SUM(C5,-C3)</f>
+        <f t="shared" si="0"/>
         <v>145</v>
       </c>
       <c r="E5" s="3">
         <v>2.35</v>
       </c>
       <c r="F5" s="6">
-        <f>D5*E5</f>
+        <f t="shared" si="1"/>
         <v>340.75</v>
       </c>
       <c r="G5" s="3"/>
@@ -585,14 +582,14 @@
         <v>3637</v>
       </c>
       <c r="D6" s="3">
-        <f>SUM(C6,-C4)</f>
+        <f t="shared" si="0"/>
         <v>89</v>
       </c>
       <c r="E6" s="8">
         <v>4.49</v>
       </c>
       <c r="F6" s="6">
-        <f>D6*E6</f>
+        <f t="shared" si="1"/>
         <v>399.61</v>
       </c>
       <c r="G6" s="6">
@@ -612,14 +609,14 @@
         <v>1713</v>
       </c>
       <c r="D7" s="3">
-        <f>SUM(C7,-C5)</f>
+        <f t="shared" si="0"/>
         <v>92</v>
       </c>
       <c r="E7" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F7" s="6">
-        <f>D7*E7</f>
+        <f t="shared" si="1"/>
         <v>223.56</v>
       </c>
       <c r="G7" s="3"/>
@@ -636,14 +633,14 @@
         <v>3786</v>
       </c>
       <c r="D8" s="3">
-        <f>SUM(C8,-C6)</f>
+        <f t="shared" si="0"/>
         <v>149</v>
       </c>
       <c r="E8" s="8">
         <v>4.71</v>
       </c>
       <c r="F8" s="6">
-        <f>D8*E8</f>
+        <f t="shared" si="1"/>
         <v>701.79</v>
       </c>
       <c r="G8" s="6">
@@ -663,44 +660,67 @@
         <v>1835</v>
       </c>
       <c r="D9" s="3">
-        <f>SUM(C9,-C7)</f>
+        <f t="shared" si="0"/>
         <v>122</v>
       </c>
       <c r="E9" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="6">
-        <f>D9*E9</f>
+        <f t="shared" si="1"/>
         <v>311.09999999999997</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="6" t="s">
-        <v>10</v>
+      <c r="A10" s="4">
+        <v>44158</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>3979</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>193</v>
+      </c>
+      <c r="E10" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" ref="F10:F11" si="2">D10*E10</f>
+        <v>909.03</v>
       </c>
       <c r="G10" s="6">
-        <f>SUM(G4:G9)</f>
-        <v>2449.31</v>
-      </c>
-      <c r="H10" s="6">
-        <f>SUM(H4:H9)</f>
-        <v>2449.31</v>
+        <f>SUM(F10,F11)</f>
+        <v>1449.6299999999999</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1449.63</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="6"/>
+      <c r="B11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2047</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>212</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="2"/>
+        <v>540.59999999999991</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>

--- a/sputnik/personal/ee/24ee.xlsx
+++ b/sputnik/personal/ee/24ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -443,10 +443,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -723,6 +723,57 @@
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>44368</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>4320</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" ref="D12:D13" si="3">SUM(C12,-C10)</f>
+        <v>341</v>
+      </c>
+      <c r="E12" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" ref="F12:F13" si="4">D12*E12</f>
+        <v>1606.11</v>
+      </c>
+      <c r="G12" s="6">
+        <f>SUM(F12,F13)</f>
+        <v>1907.0099999999998</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1907.11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2165</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="3"/>
+        <v>118</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="4"/>
+        <v>300.89999999999998</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/24ee.xlsx
+++ b/sputnik/personal/ee/24ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -114,10 +114,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -443,10 +442,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="A2" sqref="A2:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -465,315 +464,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>42959</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>44368</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>3443</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="C2" s="2">
+        <v>4320</v>
+      </c>
+      <c r="D2" s="2">
+        <f>SUM(C2,-C4)</f>
+        <v>341</v>
+      </c>
+      <c r="E2" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F2" s="5">
+        <f t="shared" ref="F2:F3" si="0">D2*E2</f>
+        <v>1606.11</v>
+      </c>
+      <c r="G2" s="5">
+        <f>SUM(F2,F3)</f>
+        <v>1907.0099999999998</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1907.11</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3">
-        <v>1476</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="6"/>
+      <c r="C3" s="2">
+        <v>2165</v>
+      </c>
+      <c r="D3" s="2">
+        <f>SUM(C3,-C5)</f>
+        <v>118</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F3" s="5">
+        <f t="shared" si="0"/>
+        <v>300.89999999999998</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>43295</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>44158</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3">
-        <v>3548</v>
-      </c>
-      <c r="D4" s="3">
-        <f t="shared" ref="D4:D11" si="0">SUM(C4,-C2)</f>
-        <v>105</v>
-      </c>
-      <c r="E4" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="F4" s="6">
-        <f t="shared" ref="F4:F9" si="1">D4*E4</f>
-        <v>472.5</v>
-      </c>
-      <c r="G4" s="6">
-        <f>SUM(F4,F5)</f>
-        <v>813.25</v>
-      </c>
-      <c r="H4" s="3">
-        <v>813.25</v>
-      </c>
+      <c r="C4" s="2">
+        <v>3979</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3">
-        <v>1621</v>
-      </c>
-      <c r="D5" s="3">
-        <f t="shared" si="0"/>
-        <v>145</v>
-      </c>
-      <c r="E5" s="3">
-        <v>2.35</v>
-      </c>
-      <c r="F5" s="6">
-        <f t="shared" si="1"/>
-        <v>340.75</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>43698</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
-        <v>3637</v>
-      </c>
-      <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>89</v>
-      </c>
-      <c r="E6" s="8">
-        <v>4.49</v>
-      </c>
-      <c r="F6" s="6">
-        <f t="shared" si="1"/>
-        <v>399.61</v>
-      </c>
-      <c r="G6" s="6">
-        <f>SUM(F6,F7)</f>
-        <v>623.17000000000007</v>
-      </c>
-      <c r="H6" s="3">
-        <v>623.16999999999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1713</v>
-      </c>
-      <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>92</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F7" s="6">
-        <f t="shared" si="1"/>
-        <v>223.56</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>44039</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>3786</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>149</v>
-      </c>
-      <c r="E8" s="8">
-        <v>4.71</v>
-      </c>
-      <c r="F8" s="6">
-        <f t="shared" si="1"/>
-        <v>701.79</v>
-      </c>
-      <c r="G8" s="6">
-        <f>SUM(F8,F9)</f>
-        <v>1012.8899999999999</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1012.89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1835</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>122</v>
-      </c>
-      <c r="E9" s="3">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F9" s="6">
-        <f t="shared" si="1"/>
-        <v>311.09999999999997</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>44158</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
-        <v>3979</v>
-      </c>
-      <c r="D10" s="3">
-        <f t="shared" si="0"/>
-        <v>193</v>
-      </c>
-      <c r="E10" s="8">
-        <v>4.71</v>
-      </c>
-      <c r="F10" s="6">
-        <f t="shared" ref="F10:F11" si="2">D10*E10</f>
-        <v>909.03</v>
-      </c>
-      <c r="G10" s="6">
-        <f>SUM(F10,F11)</f>
-        <v>1449.6299999999999</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1449.63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="3">
+      <c r="C5" s="2">
         <v>2047</v>
       </c>
-      <c r="D11" s="3">
-        <f t="shared" si="0"/>
-        <v>212</v>
-      </c>
-      <c r="E11" s="3">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F11" s="6">
-        <f t="shared" si="2"/>
-        <v>540.59999999999991</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>44368</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
-        <v>4320</v>
-      </c>
-      <c r="D12" s="3">
-        <f t="shared" ref="D12:D13" si="3">SUM(C12,-C10)</f>
-        <v>341</v>
-      </c>
-      <c r="E12" s="8">
-        <v>4.71</v>
-      </c>
-      <c r="F12" s="6">
-        <f t="shared" ref="F12:F13" si="4">D12*E12</f>
-        <v>1606.11</v>
-      </c>
-      <c r="G12" s="6">
-        <f>SUM(F12,F13)</f>
-        <v>1907.0099999999998</v>
-      </c>
-      <c r="H12" s="3">
-        <v>1907.11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="3">
-        <v>2165</v>
-      </c>
-      <c r="D13" s="3">
-        <f t="shared" si="3"/>
-        <v>118</v>
-      </c>
-      <c r="E13" s="3">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F13" s="6">
-        <f t="shared" si="4"/>
-        <v>300.89999999999998</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
